--- a/mios/bolsaComercio/ACCIONES/operacionesBolsa.xlsx
+++ b/mios/bolsaComercio/ACCIONES/operacionesBolsa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="390" windowWidth="18915" windowHeight="7440" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="390" windowWidth="18915" windowHeight="7440"/>
   </bookViews>
   <sheets>
     <sheet name="ACC" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
   <si>
     <t>valorAccHoy</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>8 años</t>
+  </si>
+  <si>
+    <t>SQM</t>
   </si>
 </sst>
 </file>
@@ -289,10 +292,11 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -304,7 +308,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -607,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,7 +627,7 @@
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -943,7 +946,7 @@
         <v>76000</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" ref="G13:G16" si="3">$M$2</f>
+        <f t="shared" ref="G13:G18" si="3">$M$2</f>
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="H13" s="4">
@@ -1071,6 +1074,80 @@
       <c r="J16" s="5">
         <f t="shared" ref="J16" si="11">I16-D16</f>
         <v>3220</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="4">
+        <v>100</v>
+      </c>
+      <c r="C17" s="1">
+        <v>18000</v>
+      </c>
+      <c r="D17" s="5">
+        <f t="shared" ref="D17:D18" si="12">B17*C17</f>
+        <v>1800000</v>
+      </c>
+      <c r="E17" s="1">
+        <v>35000</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" ref="F17:F18" si="13">B17*E17</f>
+        <v>3500000</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="3"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="H17" s="4">
+        <f t="shared" ref="H17:H18" si="14">F17*G17</f>
+        <v>122500.00000000001</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" ref="I17:I18" si="15">F17-H17</f>
+        <v>3377500</v>
+      </c>
+      <c r="J17" s="5">
+        <f t="shared" ref="J17:J18" si="16">I17-D17</f>
+        <v>1577500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="4">
+        <v>100</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1589</v>
+      </c>
+      <c r="D18" s="5">
+        <f t="shared" si="12"/>
+        <v>158900</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1682</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" si="13"/>
+        <v>168200</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="3"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="H18" s="4">
+        <f t="shared" si="14"/>
+        <v>5887.0000000000009</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="15"/>
+        <v>162313</v>
+      </c>
+      <c r="J18" s="5">
+        <f t="shared" si="16"/>
+        <v>3413</v>
       </c>
     </row>
   </sheetData>
@@ -1083,7 +1160,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -1114,7 +1191,7 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="15" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1136,7 +1213,7 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
@@ -1206,27 +1283,27 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="16" t="s">
         <v>43</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1248,7 +1325,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
@@ -1266,12 +1343,12 @@
         <f>C12*12*D12</f>
         <v>20160000</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="13" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="2" t="s">
         <v>44</v>
       </c>
@@ -1314,7 +1391,7 @@
         <f>F11-F13</f>
         <v>2408376</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G14" s="14">
         <f>G13-F11</f>
         <v>3956832</v>
       </c>

--- a/mios/bolsaComercio/ACCIONES/operacionesBolsa.xlsx
+++ b/mios/bolsaComercio/ACCIONES/operacionesBolsa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="390" windowWidth="18915" windowHeight="7440"/>
+    <workbookView xWindow="120" yWindow="450" windowWidth="18915" windowHeight="7380"/>
   </bookViews>
   <sheets>
     <sheet name="ACC" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="48">
   <si>
     <t>valorAccHoy</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>SQM</t>
+  </si>
+  <si>
+    <t>Falabella</t>
   </si>
 </sst>
 </file>
@@ -613,7 +616,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1081,21 +1084,21 @@
         <v>46</v>
       </c>
       <c r="B17" s="4">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="C17" s="1">
         <v>18000</v>
       </c>
       <c r="D17" s="5">
         <f t="shared" ref="D17:D18" si="12">B17*C17</f>
-        <v>1800000</v>
+        <v>540000</v>
       </c>
       <c r="E17" s="1">
-        <v>35000</v>
+        <v>19990</v>
       </c>
       <c r="F17" s="4">
         <f t="shared" ref="F17:F18" si="13">B17*E17</f>
-        <v>3500000</v>
+        <v>599700</v>
       </c>
       <c r="G17" s="1">
         <f t="shared" si="3"/>
@@ -1103,35 +1106,37 @@
       </c>
       <c r="H17" s="4">
         <f t="shared" ref="H17:H18" si="14">F17*G17</f>
-        <v>122500.00000000001</v>
+        <v>20989.500000000004</v>
       </c>
       <c r="I17" s="4">
         <f t="shared" ref="I17:I18" si="15">F17-H17</f>
-        <v>3377500</v>
+        <v>578710.5</v>
       </c>
       <c r="J17" s="5">
         <f t="shared" ref="J17:J18" si="16">I17-D17</f>
-        <v>1577500</v>
+        <v>38710.5</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
+      <c r="A18" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="B18" s="4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C18" s="1">
-        <v>1589</v>
+        <v>3500</v>
       </c>
       <c r="D18" s="5">
         <f t="shared" si="12"/>
-        <v>158900</v>
+        <v>175000</v>
       </c>
       <c r="E18" s="1">
-        <v>1682</v>
+        <v>4500</v>
       </c>
       <c r="F18" s="4">
         <f t="shared" si="13"/>
-        <v>168200</v>
+        <v>225000</v>
       </c>
       <c r="G18" s="1">
         <f t="shared" si="3"/>
@@ -1139,15 +1144,15 @@
       </c>
       <c r="H18" s="4">
         <f t="shared" si="14"/>
-        <v>5887.0000000000009</v>
+        <v>7875.0000000000009</v>
       </c>
       <c r="I18" s="4">
         <f t="shared" si="15"/>
-        <v>162313</v>
+        <v>217125</v>
       </c>
       <c r="J18" s="5">
         <f t="shared" si="16"/>
-        <v>3413</v>
+        <v>42125</v>
       </c>
     </row>
   </sheetData>
